--- a/downloads/S-ERP_설계평가.xlsx
+++ b/downloads/S-ERP_설계평가.xlsx
@@ -1144,7 +1144,11 @@
       </c>
       <c r="E2" s="28" t="inlineStr">
         <is>
-          <t>Application 신규 권한 승인_Test</t>
+          <t>신규 권한 부여 시 권한 요청서 작성/승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다.
+  2. 추출된 샘플의 권한 요청서 작성 여부와 부서장 승인 여부를 확인한다.
+  3. 권한 요청 및 승인 완료 후 권한 부여가 수행되었는지 확인한다
+    - 권한 요청서 작성/승인 일자 &lt; 권한부여 일자</t>
         </is>
       </c>
       <c r="F2" s="28">
@@ -1160,7 +1164,7 @@
       </c>
       <c r="B3" s="29" t="inlineStr">
         <is>
-          <t>Application 권한 회수</t>
+          <t>Application 부서이동자 권한 회수</t>
         </is>
       </c>
       <c r="C3" s="29" t="inlineStr">
@@ -1175,7 +1179,9 @@
       </c>
       <c r="E3" s="28" t="inlineStr">
         <is>
-          <t>Application 권한 회수_Test</t>
+          <t>부서이동자의 권한이 적시에 회수되었는지 검토한다
+  1. 모집단(당기 부서이동자)에서 샘플을 추출한다
+  2. 샘플에 선정된 인원이 부서 이동 전 보유하고 있는 권한이 모두 회수되었는지 확인한다</t>
         </is>
       </c>
       <c r="F3" s="28">
@@ -1191,7 +1197,7 @@
       </c>
       <c r="B4" s="29" t="inlineStr">
         <is>
-          <t>Application 퇴사자 계정 삭제</t>
+          <t>Application 퇴사자 접근 권한 회수</t>
         </is>
       </c>
       <c r="C4" s="29" t="inlineStr">
@@ -1206,7 +1212,9 @@
       </c>
       <c r="E4" s="28" t="inlineStr">
         <is>
-          <t>Application 퇴사자 계정 삭제_Test</t>
+          <t>퇴사자의 접근 권한이 적시에 회수되었는지 검토한다
+  1. 모집단(당기 퇴사자)에서 샘플을 추출한다
+  2. 샘플에 선정된 인원의 접근권한이 회수되었는지 확인한다</t>
         </is>
       </c>
       <c r="F4" s="28">
@@ -1237,7 +1245,9 @@
       </c>
       <c r="E5" s="28" t="inlineStr">
         <is>
-          <t>Application 관리자 권한 제한_Test</t>
+          <t>Application 관리자 권한 보유자자의 적정성 여부를 검토한다
+  1. 관리자 권한 보유자를 조회한다
+  2. 권한 보유자의 직무 등을 검토하여 적정한 인원이 권한을 보유하고 있는지 확인한다</t>
         </is>
       </c>
       <c r="F5" s="28">
@@ -1268,7 +1278,10 @@
       </c>
       <c r="E6" s="28" t="inlineStr">
         <is>
-          <t>Application 권한 Monitoring_Test</t>
+          <t>당기 권한 Monitoring이 수행되고 승인권자의 승인이 완료되었는지 검토한다
+  1. 통제 주기에 따라 샘플을 선정한다
+  2. 샘플의 Monitoring 문서가 전체 권한을 대상으로 검토되었는지 확인한다
+  3. Monitoring 문서의 승인 여부를 확인한다</t>
         </is>
       </c>
       <c r="F6" s="28">
@@ -1299,7 +1312,7 @@
       </c>
       <c r="E7" s="28" t="inlineStr">
         <is>
-          <t>Application 패스워드_Test</t>
+          <t>패스워드 설정 내역을 검토하여 정책서와 상이한 부분이 존재하는지 확인한다</t>
         </is>
       </c>
       <c r="F7" s="28">
@@ -1330,7 +1343,11 @@
       </c>
       <c r="E8" s="28" t="inlineStr">
         <is>
-          <t>Data 직접변경 승인_Test</t>
+          <t>데이터 변경 시 요청서 작성 및 부서장의 승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플의 데이터 변경 요청서 작성 여부와 부서장 승인 여부를 확인한다
+  3. 변경 요청서 작성 및 승인 완료 후 데이터 변경이 수행되었는지 확인한다
+    - 변경요청서 작성/승인 일자 &lt; 데이터 변경 일자</t>
         </is>
       </c>
       <c r="F8" s="28">
@@ -1361,7 +1378,9 @@
       </c>
       <c r="E9" s="28" t="inlineStr">
         <is>
-          <t>Data 직접변경 권한 제한_Test</t>
+          <t>데이터 변경 권한자의 적정성 여부를 검토한다
+  1. 데이터 변경 권한 보유자를 조회한다
+  2. 권한 보유자의 직무 등을 검토하여 적정한 인원이 권한을 보유하고 있는지 확인한다</t>
         </is>
       </c>
       <c r="F9" s="28">
@@ -1392,7 +1411,11 @@
       </c>
       <c r="E10" s="28" t="inlineStr">
         <is>
-          <t>DB 접근권한 승인_Test</t>
+          <t>DB 접근권한 요청서/승인 완료 여부를 검토한다.
+  1. 모집단에서 샘플을 추출한다.
+  2. 신규 부여된 권한(계정)에 대해 요청서 작성 여부와 승인 여부를 확인한다
+  3. 요청서 작성/승인 완료 후 계정 생성이 수행되었는지 확인한다
+    - 요청/승인 일자 &lt; 접근권한 부여 일자</t>
         </is>
       </c>
       <c r="F10" s="28">
@@ -1423,7 +1446,7 @@
       </c>
       <c r="E11" s="28" t="inlineStr">
         <is>
-          <t>DB 패스워드_Test</t>
+          <t>패스워드 설정 내역을 검토하여 정책서와 상이한 부분이 존재하는지 확인한다</t>
         </is>
       </c>
       <c r="F11" s="28">
@@ -1454,7 +1477,9 @@
       </c>
       <c r="E12" s="28" t="inlineStr">
         <is>
-          <t>DB 관리자 권한 제한_Test</t>
+          <t>DB Superuser 계정에 대한 접근 제어 설정사항을 검토한다
+  1. 접근제어 Tool에 Sys/System/SA 등 Superuser 계정으로 접속 가능한 인원을 확인한다.
+  2. 해당 인원의 직무상 적합성 여부를 확인한다.</t>
         </is>
       </c>
       <c r="F12" s="28">
@@ -1485,7 +1510,11 @@
       </c>
       <c r="E13" s="28" t="inlineStr">
         <is>
-          <t>OS 접근권한 승인_Test</t>
+          <t>OS 접근권한 요청서/승인 완료 여부를 검토한다.
+  1. 모집단에서 샘플을 추출한다.
+  2. 신규 부여된 권한(계정)에 대해 요청서 작성 여부와 승인 여부를 확인한다
+  3. 요청서 작성/승인 완료 후 계정 생성이 수행되었는지 확인한다
+    - 요청/승인 일자 &lt; 접근권한 부여 일자</t>
         </is>
       </c>
       <c r="F13" s="28">
@@ -1516,7 +1545,7 @@
       </c>
       <c r="E14" s="28" t="inlineStr">
         <is>
-          <t>OS 패스워드_Test</t>
+          <t>패스워드 설정 내역을 검토하여 정책서와 상이한 부분이 존재하는지 확인한다</t>
         </is>
       </c>
       <c r="F14" s="28">
@@ -1547,7 +1576,9 @@
       </c>
       <c r="E15" s="28" t="inlineStr">
         <is>
-          <t>OS 관리자 권한 제한_Test</t>
+          <t>OS Superuser 계정에 대한 접근 제어 설정사항을 검토한다
+  1. 접근제어 Tool에 root/administrator 등 Superuser 계정으로 접속 가능한 인원을 확인한다.
+  2. 해당 인원의 직무상 적합성 여부를 확인한다.</t>
         </is>
       </c>
       <c r="F15" s="28">
@@ -1578,7 +1609,11 @@
       </c>
       <c r="E16" s="28" t="inlineStr">
         <is>
-          <t>프로그램 변경 승인_Test</t>
+          <t>프로그램 변경 시 변경 요청서 작성/승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다.
+  2. 추출된 샘플의 변경요청서 작성 여부와 부서장 승인 여부를 확인한다.
+  3. 변경요청서 작성/승인 완료 후 이관이 수행되었는지 확인한다
+    - 변경 요청/승인 일자 &lt; 이관일자</t>
         </is>
       </c>
       <c r="F16" s="28">
@@ -1609,7 +1644,11 @@
       </c>
       <c r="E17" s="28" t="inlineStr">
         <is>
-          <t>프로그램 변경 사용자 테스트_Test</t>
+          <t>프로그램 변경시 요청자에 의한 사용자 테스트 완료 여부를 검토한다.
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플의 사용자 테스트 결과서 작성 여부를 확인한다
+  3. 사용자 테스트 완료 후 이관이 수행되었는지 확인한다
+    - 사용자 테스트 일자 &lt; 이관 일자</t>
         </is>
       </c>
       <c r="F17" s="28">
@@ -1640,7 +1679,11 @@
       </c>
       <c r="E18" s="28" t="inlineStr">
         <is>
-          <t>프로그램 이관 승인_Test</t>
+          <t>프로그램 변경시 이관 요청서 작성/승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플의 이관요청서 작성 여부 승인 여부를 확인한다
+  3. 이관 승인 완료 후 이관이 수행되었는지 확인한다
+    - 이관 요청 작성/승인 일자&lt;이관일자</t>
         </is>
       </c>
       <c r="F18" s="28">
@@ -1671,7 +1714,8 @@
       </c>
       <c r="E19" s="28" t="inlineStr">
         <is>
-          <t>개발/운영 환경 분리_Test</t>
+          <t>개발과 운영 환경이 논리적으로 분리되어 있으며 운영 환경에서는 개발 불가 설정을 검토한다
+  1. 시스템이 개발, 운영으로 분리되어 있음을 확인한다</t>
         </is>
       </c>
       <c r="F19" s="28">
@@ -1702,7 +1746,9 @@
       </c>
       <c r="E20" s="28" t="inlineStr">
         <is>
-          <t>이관담당자 권한 제한_Test</t>
+          <t>이관권한을 보유한 인원이 직무분리상 해당 권한을 보유하고 있어야 하는 인원인지 검토한다
+  1. 이관권한을 보유한 인원이 직무상 이관담당자인지 확인한다
+  2. 이관담당자가 지정되어 있지 않은 경우 각 변경건에 대해 개발담당자와 이관담당자를 확인한다</t>
         </is>
       </c>
       <c r="F20" s="28">
@@ -1733,7 +1779,9 @@
       </c>
       <c r="E21" s="28" t="inlineStr">
         <is>
-          <t>인프라 설정변경_DB_Test</t>
+          <t>DB 변경사항(Patch History)에 대해 계획서와 승인 이력의 존재 여부를 검토한다
+  1. 모집단(DB Patch 이력)에서 샘플을 추출한다
+  2. 샘플에 대해 정기PM 계획서 등 변경에 대한 승인 이력을 확인한다</t>
         </is>
       </c>
       <c r="F21" s="28">
@@ -1764,7 +1812,9 @@
       </c>
       <c r="E22" s="28" t="inlineStr">
         <is>
-          <t>인프라 설정변경_OS_Test</t>
+          <t>OS 변경사항(Patch History)에 대해 계획서와 승인 이력의 존재 여부를 검토한다
+  1. 모집단(OS Patch 이력)에서 샘플을 추출한다
+  2. 샘플에 대해 정기PM 계획서 등 변경에 대한 승인 이력을 확인한다</t>
         </is>
       </c>
       <c r="F22" s="28">
@@ -1795,7 +1845,11 @@
       </c>
       <c r="E23" s="28" t="inlineStr">
         <is>
-          <t>배치잡 스케줄 등록 승인_Test</t>
+          <t>Batch 등록(변경)시 등록(변경) 요청서 작성 및 승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 등록(변경) 요청서의 작성 여부 및 승인 여부를 확인한다
+  3. 등록(변경) 요청서 작성 및 승인 완료 후 Batch 등록(변경)이 수행되었음을 확인한다
+    - 요청/승인 일자 &lt; 등록 일자</t>
         </is>
       </c>
       <c r="F23" s="28">
@@ -1826,7 +1880,9 @@
       </c>
       <c r="E24" s="28" t="inlineStr">
         <is>
-          <t>배치잡 스케줄 등록 권한 제한_Test</t>
+          <t>Batch 등록권한 보유자의 직무상 적절성과 수행중인 Batch Job의 등록자를 검토한다
+  1. Batch 등록 권한 보유자를 조회하여 직무상 적절한 인원(IT담당자 등)이 보유하고 있는지 확인한다
+  2. Batch 등록 권한이 현업에게 있는 경우 실제 등록된 Batch의 등록자를 대상으로 적정성 여부를 확인한다</t>
         </is>
       </c>
       <c r="F24" s="28">
@@ -1857,7 +1913,9 @@
       </c>
       <c r="E25" s="28" t="inlineStr">
         <is>
-          <t>배치잡 Monitoring_Test</t>
+          <t>Batch 오류건에 대해 원인 파악 및 조치 여부를 검토한다
+  1. 모집단(당기 Batch 오류 List)에서 샘플을 추출한다
+  2. 샘플에 대해 원인 파악 및 조치 여부가 문서화되어 있는지 확인한다</t>
         </is>
       </c>
       <c r="F25" s="28">
@@ -1888,7 +1946,8 @@
       </c>
       <c r="E26" s="28" t="inlineStr">
         <is>
-          <t>장애처리_Test</t>
+          <t>장애대응/재해복구 모의훈련은 평가 대상 기간 중 수행된 모의훈련 계획서 및 결과서 내용을 검토한다
+ 1. 장애대응/재해복구 모의훈련 결과서가 적절한 승인권자의 승인을 득하였는지 확인한다</t>
         </is>
       </c>
       <c r="F26" s="28">
@@ -1919,7 +1978,10 @@
       </c>
       <c r="E27" s="28" t="inlineStr">
         <is>
-          <t>백업관리_Test</t>
+          <t>시스템그룹에서 작성하는 월간운영 현황 보고 문서에 백업 및 소산 내역의 작성 여부와 승인 여부를 검토한다
+ 1. 모집단에서 샘플을 추출한다
+ 2. 추출된 샘플의 백업 및 소산 결과가 정책서에 명시된 내용과 일치하는지 확인한다
+ 3. 월간운영 현황 보고의 시스템 그룹장 승인 여부를 확인한다</t>
         </is>
       </c>
       <c r="F27" s="28">
@@ -1950,7 +2012,9 @@
       </c>
       <c r="E28" s="28" t="inlineStr">
         <is>
-          <t>데이터 센터 접근제한_Test</t>
+          <t>데이터 센터 출입 통제 테스트는 아래와 같다
+ 1. 출입 시스템에 등록된 출입 인가자 List의 적절성(서버담당자 직무를 보유한 인원)을 확인한다
+ 2. 인가에 대한 승인 이력을 확인한다</t>
         </is>
       </c>
       <c r="F28" s="28">
@@ -1981,7 +2045,10 @@
       </c>
       <c r="E29" s="28" t="inlineStr">
         <is>
-          <t>타당성 검토 및 승인_Test</t>
+          <t>구축된 시스템의 타당검 검토 및 부서장 승인 이력의 존재 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 타당성 검토 문서가 작성되었는지 확인한다
+  3. 타당성 검토 문서가 부서장의 승인을 득하였는지 확인한다</t>
         </is>
       </c>
       <c r="F29" s="28">
@@ -2012,7 +2079,10 @@
       </c>
       <c r="E30" s="28" t="inlineStr">
         <is>
-          <t>요구사항 정의서 작성 및 검토_Test</t>
+          <t>구축된 시스템의 타당검 검토 및 부서장 승인 이력의 존재 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 요구사항 정의서가 작성되었는지 확인한다
+  3. 요구사항 정의서 문서가 부서장의 승인을 득하였는지 확인한다</t>
         </is>
       </c>
       <c r="F30" s="28">
@@ -2043,7 +2113,11 @@
       </c>
       <c r="E31" s="28" t="inlineStr">
         <is>
-          <t>단위 테스트 및 통합 테스트 진행_Test</t>
+          <t>시스템 구축 및 Open 시 테스트 시나리오/결과서 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 규모와 기능에 따라 테스트(단위테스트, CRP테스트, EP테스트, 통합테스트, 사용자인수테스트) 시나리오와 결과서의 작성 여부를 확인한다
+  3. 테스트 완료 후 시스템 Open 되었음을 확인한다
+    - 테스트 일자 &lt; 시스템 Open 일자</t>
         </is>
       </c>
       <c r="F31" s="28">
@@ -2074,7 +2148,11 @@
       </c>
       <c r="E32" s="28" t="inlineStr">
         <is>
-          <t>데이터 이관 계획서 작성 및 검토_Test</t>
+          <t>시스템 구축 및 Open 시 데이터 이관(DC&amp;M) 계획서 및 결과서의 작성과 승인권자의 승인 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 데이터 이관 계획서 및 결과서의 작성과 승인권자의 승인 여부를 확인한다
+  3. 데이터 이관 결과서 승인 완료 후 시스템 Open 되었음을 확인한다
+    - 데이터 이관 승인 일자 &lt; 시스템 Open 일자</t>
         </is>
       </c>
       <c r="F32" s="28">
@@ -2105,7 +2183,10 @@
       </c>
       <c r="E33" s="28" t="inlineStr">
         <is>
-          <t>사용자 교육_Test</t>
+          <t>시스템 구축 및 사용자 교육 계획이 수립되고 부서장의 승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 사용자 교육 계획서를 확인한다
+  3. 교육 계획서의 부서장의 승인 여부를 확인한다</t>
         </is>
       </c>
       <c r="F33" s="28">
@@ -2136,7 +2217,11 @@
       </c>
       <c r="E34" s="28" t="inlineStr">
         <is>
-          <t>검수보고서 승인_Test</t>
+          <t>시스템 구축 및 Open 시 검수보고서 작성/승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 검수보고서 작성/승인 완료 여부를 확인한다
+  3. 검수보고서 작성/승인 완료 후 시스템 Open 되었음을 확인한다
+    - 검수보고서 작성/승인 일자 &lt; 시스템 Open 일자</t>
         </is>
       </c>
       <c r="F34" s="28">
@@ -3260,7 +3345,11 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>DB 접근권한 승인_Test</t>
+          <t>DB 접근권한 요청서/승인 완료 여부를 검토한다.
+  1. 모집단에서 샘플을 추출한다.
+  2. 신규 부여된 권한(계정)에 대해 요청서 작성 여부와 승인 여부를 확인한다
+  3. 요청서 작성/승인 완료 후 계정 생성이 수행되었는지 확인한다
+    - 요청/승인 일자 &lt; 접근권한 부여 일자</t>
         </is>
       </c>
     </row>
@@ -3499,7 +3588,7 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>DB 패스워드_Test</t>
+          <t>패스워드 설정 내역을 검토하여 정책서와 상이한 부분이 존재하는지 확인한다</t>
         </is>
       </c>
     </row>
@@ -3738,7 +3827,9 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>DB 관리자 권한 제한_Test</t>
+          <t>DB Superuser 계정에 대한 접근 제어 설정사항을 검토한다
+  1. 접근제어 Tool에 Sys/System/SA 등 Superuser 계정으로 접속 가능한 인원을 확인한다.
+  2. 해당 인원의 직무상 적합성 여부를 확인한다.</t>
         </is>
       </c>
     </row>
@@ -3977,7 +4068,11 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>OS 접근권한 승인_Test</t>
+          <t>OS 접근권한 요청서/승인 완료 여부를 검토한다.
+  1. 모집단에서 샘플을 추출한다.
+  2. 신규 부여된 권한(계정)에 대해 요청서 작성 여부와 승인 여부를 확인한다
+  3. 요청서 작성/승인 완료 후 계정 생성이 수행되었는지 확인한다
+    - 요청/승인 일자 &lt; 접근권한 부여 일자</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4311,7 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>OS 패스워드_Test</t>
+          <t>패스워드 설정 내역을 검토하여 정책서와 상이한 부분이 존재하는지 확인한다</t>
         </is>
       </c>
     </row>
@@ -4455,7 +4550,9 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>OS 관리자 권한 제한_Test</t>
+          <t>OS Superuser 계정에 대한 접근 제어 설정사항을 검토한다
+  1. 접근제어 Tool에 root/administrator 등 Superuser 계정으로 접속 가능한 인원을 확인한다.
+  2. 해당 인원의 직무상 적합성 여부를 확인한다.</t>
         </is>
       </c>
     </row>
@@ -4694,7 +4791,11 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>프로그램 변경 승인_Test</t>
+          <t>프로그램 변경 시 변경 요청서 작성/승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다.
+  2. 추출된 샘플의 변경요청서 작성 여부와 부서장 승인 여부를 확인한다.
+  3. 변경요청서 작성/승인 완료 후 이관이 수행되었는지 확인한다
+    - 변경 요청/승인 일자 &lt; 이관일자</t>
         </is>
       </c>
     </row>
@@ -4933,7 +5034,11 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>프로그램 변경 사용자 테스트_Test</t>
+          <t>프로그램 변경시 요청자에 의한 사용자 테스트 완료 여부를 검토한다.
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플의 사용자 테스트 결과서 작성 여부를 확인한다
+  3. 사용자 테스트 완료 후 이관이 수행되었는지 확인한다
+    - 사용자 테스트 일자 &lt; 이관 일자</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5277,11 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>프로그램 이관 승인_Test</t>
+          <t>프로그램 변경시 이관 요청서 작성/승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플의 이관요청서 작성 여부 승인 여부를 확인한다
+  3. 이관 승인 완료 후 이관이 수행되었는지 확인한다
+    - 이관 요청 작성/승인 일자&lt;이관일자</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5520,8 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>개발/운영 환경 분리_Test</t>
+          <t>개발과 운영 환경이 논리적으로 분리되어 있으며 운영 환경에서는 개발 불가 설정을 검토한다
+  1. 시스템이 개발, 운영으로 분리되어 있음을 확인한다</t>
         </is>
       </c>
     </row>
@@ -5650,7 +5760,11 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>Application 신규 권한 승인_Test</t>
+          <t>신규 권한 부여 시 권한 요청서 작성/승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다.
+  2. 추출된 샘플의 권한 요청서 작성 여부와 부서장 승인 여부를 확인한다.
+  3. 권한 요청 및 승인 완료 후 권한 부여가 수행되었는지 확인한다
+    - 권한 요청서 작성/승인 일자 &lt; 권한부여 일자</t>
         </is>
       </c>
     </row>
@@ -5889,7 +6003,9 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>이관담당자 권한 제한_Test</t>
+          <t>이관권한을 보유한 인원이 직무분리상 해당 권한을 보유하고 있어야 하는 인원인지 검토한다
+  1. 이관권한을 보유한 인원이 직무상 이관담당자인지 확인한다
+  2. 이관담당자가 지정되어 있지 않은 경우 각 변경건에 대해 개발담당자와 이관담당자를 확인한다</t>
         </is>
       </c>
     </row>
@@ -6128,7 +6244,9 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>인프라 설정변경_DB_Test</t>
+          <t>DB 변경사항(Patch History)에 대해 계획서와 승인 이력의 존재 여부를 검토한다
+  1. 모집단(DB Patch 이력)에서 샘플을 추출한다
+  2. 샘플에 대해 정기PM 계획서 등 변경에 대한 승인 이력을 확인한다</t>
         </is>
       </c>
     </row>
@@ -6367,7 +6485,9 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>인프라 설정변경_OS_Test</t>
+          <t>OS 변경사항(Patch History)에 대해 계획서와 승인 이력의 존재 여부를 검토한다
+  1. 모집단(OS Patch 이력)에서 샘플을 추출한다
+  2. 샘플에 대해 정기PM 계획서 등 변경에 대한 승인 이력을 확인한다</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6726,11 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>배치잡 스케줄 등록 승인_Test</t>
+          <t>Batch 등록(변경)시 등록(변경) 요청서 작성 및 승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 등록(변경) 요청서의 작성 여부 및 승인 여부를 확인한다
+  3. 등록(변경) 요청서 작성 및 승인 완료 후 Batch 등록(변경)이 수행되었음을 확인한다
+    - 요청/승인 일자 &lt; 등록 일자</t>
         </is>
       </c>
     </row>
@@ -6845,7 +6969,9 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>배치잡 스케줄 등록 권한 제한_Test</t>
+          <t>Batch 등록권한 보유자의 직무상 적절성과 수행중인 Batch Job의 등록자를 검토한다
+  1. Batch 등록 권한 보유자를 조회하여 직무상 적절한 인원(IT담당자 등)이 보유하고 있는지 확인한다
+  2. Batch 등록 권한이 현업에게 있는 경우 실제 등록된 Batch의 등록자를 대상으로 적정성 여부를 확인한다</t>
         </is>
       </c>
     </row>
@@ -7084,7 +7210,9 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>배치잡 Monitoring_Test</t>
+          <t>Batch 오류건에 대해 원인 파악 및 조치 여부를 검토한다
+  1. 모집단(당기 Batch 오류 List)에서 샘플을 추출한다
+  2. 샘플에 대해 원인 파악 및 조치 여부가 문서화되어 있는지 확인한다</t>
         </is>
       </c>
     </row>
@@ -7323,7 +7451,8 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>장애처리_Test</t>
+          <t>장애대응/재해복구 모의훈련은 평가 대상 기간 중 수행된 모의훈련 계획서 및 결과서 내용을 검토한다
+ 1. 장애대응/재해복구 모의훈련 결과서가 적절한 승인권자의 승인을 득하였는지 확인한다</t>
         </is>
       </c>
     </row>
@@ -7562,7 +7691,10 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>백업관리_Test</t>
+          <t>시스템그룹에서 작성하는 월간운영 현황 보고 문서에 백업 및 소산 내역의 작성 여부와 승인 여부를 검토한다
+ 1. 모집단에서 샘플을 추출한다
+ 2. 추출된 샘플의 백업 및 소산 결과가 정책서에 명시된 내용과 일치하는지 확인한다
+ 3. 월간운영 현황 보고의 시스템 그룹장 승인 여부를 확인한다</t>
         </is>
       </c>
     </row>
@@ -7801,7 +7933,9 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>데이터 센터 접근제한_Test</t>
+          <t>데이터 센터 출입 통제 테스트는 아래와 같다
+ 1. 출입 시스템에 등록된 출입 인가자 List의 적절성(서버담당자 직무를 보유한 인원)을 확인한다
+ 2. 인가에 대한 승인 이력을 확인한다</t>
         </is>
       </c>
     </row>
@@ -8040,7 +8174,10 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>타당성 검토 및 승인_Test</t>
+          <t>구축된 시스템의 타당검 검토 및 부서장 승인 이력의 존재 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 타당성 검토 문서가 작성되었는지 확인한다
+  3. 타당성 검토 문서가 부서장의 승인을 득하였는지 확인한다</t>
         </is>
       </c>
     </row>
@@ -8240,7 +8377,7 @@
       </c>
       <c r="C8" s="30" t="inlineStr">
         <is>
-          <t>Application 권한 회수</t>
+          <t>Application 부서이동자 권한 회수</t>
         </is>
       </c>
     </row>
@@ -8279,7 +8416,9 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>Application 권한 회수_Test</t>
+          <t>부서이동자의 권한이 적시에 회수되었는지 검토한다
+  1. 모집단(당기 부서이동자)에서 샘플을 추출한다
+  2. 샘플에 선정된 인원이 부서 이동 전 보유하고 있는 권한이 모두 회수되었는지 확인한다</t>
         </is>
       </c>
     </row>
@@ -8518,7 +8657,10 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>요구사항 정의서 작성 및 검토_Test</t>
+          <t>구축된 시스템의 타당검 검토 및 부서장 승인 이력의 존재 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 요구사항 정의서가 작성되었는지 확인한다
+  3. 요구사항 정의서 문서가 부서장의 승인을 득하였는지 확인한다</t>
         </is>
       </c>
     </row>
@@ -8757,7 +8899,11 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>단위 테스트 및 통합 테스트 진행_Test</t>
+          <t>시스템 구축 및 Open 시 테스트 시나리오/결과서 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 규모와 기능에 따라 테스트(단위테스트, CRP테스트, EP테스트, 통합테스트, 사용자인수테스트) 시나리오와 결과서의 작성 여부를 확인한다
+  3. 테스트 완료 후 시스템 Open 되었음을 확인한다
+    - 테스트 일자 &lt; 시스템 Open 일자</t>
         </is>
       </c>
     </row>
@@ -8996,7 +9142,11 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>데이터 이관 계획서 작성 및 검토_Test</t>
+          <t>시스템 구축 및 Open 시 데이터 이관(DC&amp;M) 계획서 및 결과서의 작성과 승인권자의 승인 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 데이터 이관 계획서 및 결과서의 작성과 승인권자의 승인 여부를 확인한다
+  3. 데이터 이관 결과서 승인 완료 후 시스템 Open 되었음을 확인한다
+    - 데이터 이관 승인 일자 &lt; 시스템 Open 일자</t>
         </is>
       </c>
     </row>
@@ -9235,7 +9385,10 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>사용자 교육_Test</t>
+          <t>시스템 구축 및 사용자 교육 계획이 수립되고 부서장의 승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 사용자 교육 계획서를 확인한다
+  3. 교육 계획서의 부서장의 승인 여부를 확인한다</t>
         </is>
       </c>
     </row>
@@ -9474,7 +9627,11 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>검수보고서 승인_Test</t>
+          <t>시스템 구축 및 Open 시 검수보고서 작성/승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플건의 검수보고서 작성/승인 완료 여부를 확인한다
+  3. 검수보고서 작성/승인 완료 후 시스템 Open 되었음을 확인한다
+    - 검수보고서 작성/승인 일자 &lt; 시스템 Open 일자</t>
         </is>
       </c>
     </row>
@@ -9674,7 +9831,7 @@
       </c>
       <c r="C8" s="30" t="inlineStr">
         <is>
-          <t>Application 퇴사자 계정 삭제</t>
+          <t>Application 퇴사자 접근 권한 회수</t>
         </is>
       </c>
     </row>
@@ -9713,7 +9870,9 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>Application 퇴사자 계정 삭제_Test</t>
+          <t>퇴사자의 접근 권한이 적시에 회수되었는지 검토한다
+  1. 모집단(당기 퇴사자)에서 샘플을 추출한다
+  2. 샘플에 선정된 인원의 접근권한이 회수되었는지 확인한다</t>
         </is>
       </c>
     </row>
@@ -9952,7 +10111,9 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>Application 관리자 권한 제한_Test</t>
+          <t>Application 관리자 권한 보유자자의 적정성 여부를 검토한다
+  1. 관리자 권한 보유자를 조회한다
+  2. 권한 보유자의 직무 등을 검토하여 적정한 인원이 권한을 보유하고 있는지 확인한다</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10352,10 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>Application 권한 Monitoring_Test</t>
+          <t>당기 권한 Monitoring이 수행되고 승인권자의 승인이 완료되었는지 검토한다
+  1. 통제 주기에 따라 샘플을 선정한다
+  2. 샘플의 Monitoring 문서가 전체 권한을 대상으로 검토되었는지 확인한다
+  3. Monitoring 문서의 승인 여부를 확인한다</t>
         </is>
       </c>
     </row>
@@ -10430,7 +10594,7 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>Application 패스워드_Test</t>
+          <t>패스워드 설정 내역을 검토하여 정책서와 상이한 부분이 존재하는지 확인한다</t>
         </is>
       </c>
     </row>
@@ -10669,7 +10833,11 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>Data 직접변경 승인_Test</t>
+          <t>데이터 변경 시 요청서 작성 및 부서장의 승인 완료 여부를 검토한다
+  1. 모집단에서 샘플을 추출한다
+  2. 추출된 샘플의 데이터 변경 요청서 작성 여부와 부서장 승인 여부를 확인한다
+  3. 변경 요청서 작성 및 승인 완료 후 데이터 변경이 수행되었는지 확인한다
+    - 변경요청서 작성/승인 일자 &lt; 데이터 변경 일자</t>
         </is>
       </c>
     </row>
@@ -10908,7 +11076,9 @@
       </c>
       <c r="C11" s="31" t="inlineStr">
         <is>
-          <t>Data 직접변경 권한 제한_Test</t>
+          <t>데이터 변경 권한자의 적정성 여부를 검토한다
+  1. 데이터 변경 권한 보유자를 조회한다
+  2. 권한 보유자의 직무 등을 검토하여 적정한 인원이 권한을 보유하고 있는지 확인한다</t>
         </is>
       </c>
     </row>
